--- a/Datasheets/IO.xlsx
+++ b/Datasheets/IO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Питание</t>
   </si>
@@ -91,46 +91,49 @@
     <t xml:space="preserve">GND</t>
   </si>
   <si>
+    <t xml:space="preserve">Помпа</t>
+  </si>
+  <si>
     <t xml:space="preserve">NTC об.возб 1</t>
   </si>
   <si>
+    <t xml:space="preserve">NTC об.возб 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC об.стат. 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дискретные Входы</t>
   </si>
   <si>
-    <t xml:space="preserve">NTC об.возб 2</t>
+    <t xml:space="preserve">NTC об.стат. 2</t>
   </si>
   <si>
     <t xml:space="preserve">Правый Суппорт Зажат</t>
   </si>
   <si>
-    <t xml:space="preserve">NTC об.стат. 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Левый Суппорт Зажат</t>
   </si>
   <si>
-    <t xml:space="preserve">NTC об.стат. 2</t>
+    <t xml:space="preserve">CAN</t>
   </si>
   <si>
     <t xml:space="preserve">Вкл. Зажигания</t>
   </si>
   <si>
+    <t xml:space="preserve">Can High</t>
+  </si>
+  <si>
     <t xml:space="preserve">Есть Высокое Напряжение ЗПТ</t>
   </si>
   <si>
-    <t xml:space="preserve">CAN</t>
+    <t xml:space="preserve">Can Low</t>
   </si>
   <si>
     <t xml:space="preserve">Ручка КПП «Вперед»</t>
   </si>
   <si>
-    <t xml:space="preserve">Can High</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ручка КПП «Реверс»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can Low</t>
   </si>
   <si>
     <t xml:space="preserve">Ручка КПП «Паркинг»</t>
@@ -251,13 +254,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.34"/>
@@ -381,88 +384,96 @@
         <v>22</v>
       </c>
       <c r="B13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -470,7 +481,7 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A19:B19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Datasheets/IO.xlsx
+++ b/Datasheets/IO.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t xml:space="preserve">Питание</t>
   </si>
@@ -140,6 +141,139 @@
   </si>
   <si>
     <t xml:space="preserve">Аварийный Останов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Распиновка сигнального разъема</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер контакта разъема</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Назначение</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Изменения усилия руля (ШИМ) (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стояночный тормоз (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкл силового контактора (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть Высокое Напряжение ЗПТ (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкл. Зажигания  (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аварийный Останов (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+5В (Питание педалей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5В (Питание педалей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN-BUS HIGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN-BUS LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+5В (Питание ДПР)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5В (Питание ДПР)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкл шунтирующего контактора (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лампа заднего хода (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкл. Помпы (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручка КПП «Вперед» (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручка КПП «Реверс» (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручка КПП «Паркинг» (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДПР_3 (R-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДПР_2 (B-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДПР_1 (A-)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">+Питания</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">12-24В</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-Питания(12-24В)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Правый Суппорт Зажат (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Левый Суппорт Зажат (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC об. Якоря -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC об. Якоря +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC об. Возб. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC об. Возб. +</t>
   </si>
 </sst>
 </file>
@@ -149,7 +283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -172,6 +306,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -224,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,6 +375,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,11 +409,11 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.34"/>
@@ -492,4 +645,329 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>